--- a/excel2mysql/excels/comp_game_option.xlsx
+++ b/excel2mysql/excels/comp_game_option.xlsx
@@ -19,27 +19,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>KindID</t>
   </si>
   <si>
-    <t>无注释</t>
+    <t>int(11)|PRI|</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>PalyCount</t>
   </si>
   <si>
+    <t>int(11)||</t>
+  </si>
+  <si>
     <t>房间玩家人数</t>
   </si>
   <si>
     <t>Option</t>
   </si>
   <si>
+    <t>varchar(255)||</t>
+  </si>
+  <si>
     <t>房间游戏选项</t>
   </si>
   <si>
+    <t>{"GameType":0,"TimesType":2,"King":false}</t>
+  </si>
+  <si>
+    <t>{"GameType":0,"King":false}</t>
+  </si>
+  <si>
+    <t>{"wanFa":0,"jiaYiSe":false,"jiaGongGong":false,"jiaDaXiaoWan":false}</t>
+  </si>
+  <si>
+    <t>{"zhaMa":2}</t>
+  </si>
+  <si>
     <t>{"suanFen":0,"chaHua":false,"wanFa":false,"zhuaHua":0}</t>
+  </si>
+  <si>
+    <t>{"suanFen":0,"wanFa":false}</t>
+  </si>
+  <si>
+    <t>{"LeftCardCnt":0,"ShuiMode":0,"ZhuangMode":0,"ThreeGold":false,"RobGold":false}</t>
+  </si>
+  <si>
+    <t>{"QingYiSe":false,"DuiDuiHu":false,"WeiDanDiao":false}</t>
   </si>
 </sst>
 </file>
@@ -369,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,10 +410,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -391,21 +421,109 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>29</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>389</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>391</v>
       </c>
-      <c r="B3">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>392</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>393</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>394</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/excel2mysql/excels/comp_game_option.xlsx
+++ b/excel2mysql/excels/comp_game_option.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>KindID</t>
   </si>
@@ -48,28 +48,7 @@
     <t>房间游戏选项</t>
   </si>
   <si>
-    <t>{"GameType":0,"TimesType":2,"King":false}</t>
-  </si>
-  <si>
-    <t>{"GameType":0,"King":false}</t>
-  </si>
-  <si>
-    <t>{"wanFa":0,"jiaYiSe":false,"jiaGongGong":false,"jiaDaXiaoWan":false}</t>
-  </si>
-  <si>
-    <t>{"zhaMa":2}</t>
-  </si>
-  <si>
     <t>{"suanFen":0,"chaHua":false,"wanFa":false,"zhuaHua":0}</t>
-  </si>
-  <si>
-    <t>{"suanFen":0,"wanFa":false}</t>
-  </si>
-  <si>
-    <t>{"LeftCardCnt":0,"ShuiMode":0,"ZhuangMode":0,"ThreeGold":false,"RobGold":false}</t>
-  </si>
-  <si>
-    <t>{"QingYiSe":false,"DuiDuiHu":false,"WeiDanDiao":false}</t>
   </si>
 </sst>
 </file>
@@ -399,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,90 +419,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>28</v>
+        <v>391</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>29</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>389</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>391</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>392</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>393</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>394</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
